--- a/excel_files/Reqiurements Documents_test_cases.xlsx
+++ b/excel_files/Reqiurements Documents_test_cases.xlsx
@@ -7,16 +7,362 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Test Cases</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>Valid Patient Registration</t>
+  </si>
+  <si>
+    <t>Invalid Patient Registration - Missing Fields</t>
+  </si>
+  <si>
+    <t>Valid Patient Login</t>
+  </si>
+  <si>
+    <t>Invalid Patient Login - Wrong Password</t>
+  </si>
+  <si>
+    <t>Search Doctor by Name</t>
+  </si>
+  <si>
+    <t>Search Doctor by Specialization</t>
+  </si>
+  <si>
+    <t>Book Appointment with Valid Details</t>
+  </si>
+  <si>
+    <t>Book Appointment with Invalid Details</t>
+  </si>
+  <si>
+    <t>View Doctor Qualifications</t>
+  </si>
+  <si>
+    <t>Doctor Registration with Valid Details</t>
+  </si>
+  <si>
+    <t>Doctor Registration with Invalid Government Number</t>
+  </si>
+  <si>
+    <t>Doctor Login with Valid Credentials</t>
+  </si>
+  <si>
+    <t>View and Manage Appointments</t>
+  </si>
+  <si>
+    <t>Access Test Results</t>
+  </si>
+  <si>
+    <t>Diagnostic Center Registration with Valid Details</t>
+  </si>
+  <si>
+    <t>Diagnostic Center Login with Valid Credentials</t>
+  </si>
+  <si>
+    <t>Update Patient Records</t>
+  </si>
+  <si>
+    <t>Upload Reports</t>
+  </si>
+  <si>
+    <t>Logout Functionality</t>
+  </si>
+  <si>
+    <t>Inactivity Timeout</t>
+  </si>
+  <si>
+    <t>Verify that a patient can successfully register with valid inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles missing required fields during patient registration.</t>
+  </si>
+  <si>
+    <t>Verify that a patient can successfully log in with valid credentials.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles incorrect password during patient login.</t>
+  </si>
+  <si>
+    <t>Verify that a patient can search for a doctor by name.</t>
+  </si>
+  <si>
+    <t>Verify that a patient can search for a doctor by specialization.</t>
+  </si>
+  <si>
+    <t>Verify that a patient can book an appointment with valid details.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles invalid details during appointment booking.</t>
+  </si>
+  <si>
+    <t>Verify that a patient can view a doctor's qualifications.</t>
+  </si>
+  <si>
+    <t>Verify that a doctor can register with valid details.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles an invalid government registration number during doctor registration.</t>
+  </si>
+  <si>
+    <t>Verify that a doctor can log in with valid credentials.</t>
+  </si>
+  <si>
+    <t>Verify that a doctor can view and manage their appointments.</t>
+  </si>
+  <si>
+    <t>Verify that a doctor can access test results of patients.</t>
+  </si>
+  <si>
+    <t>Verify that a diagnostic center can register with valid details.</t>
+  </si>
+  <si>
+    <t>Verify that a diagnostic center can log in with valid credentials.</t>
+  </si>
+  <si>
+    <t>Verify that a diagnostic center can update patient records.</t>
+  </si>
+  <si>
+    <t>Verify that a diagnostic center can upload reports.</t>
+  </si>
+  <si>
+    <t>Verify that users can log out of the application.</t>
+  </si>
+  <si>
+    <t>Verify that the system logs out users due to inactivity.</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to the registration page.
+Step 2: Enter valid details in all required fields.
+Step 3: Submit the registration form.</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to the registration page.
+Step 2: Leave one or more required fields empty.
+Step 3: Submit the registration form.</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to the login page.
+Step 2: Enter valid username and password.
+Step 3: Click on the login button.</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to the login page.
+Step 2: Enter valid username and incorrect password.
+Step 3: Click on the login button.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a patient.
+Step 2: Navigate to the doctor search page.
+Step 3: Enter a valid doctor's name.
+Step 4: Submit the search query.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a patient.
+Step 2: Navigate to the doctor search page.
+Step 3: Select a specialization from the filter options.
+Step 4: Submit the search query.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a patient.
+Step 2: Search for a doctor and select a time slot.
+Step 3: Enter valid details in the appointment form.
+Step 4: Submit the appointment form.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a patient.
+Step 2: Search for a doctor and select a time slot.
+Step 3: Enter invalid details in the appointment form (e.g., invalid phone number).
+Step 4: Submit the appointment form.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a patient.
+Step 2: Search for a doctor and view their profile.
+Step 3: Navigate to the qualifications section.</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to the doctor registration page.
+Step 2: Enter valid details, including a valid government registration number.
+Step 3: Submit the registration form.</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to the doctor registration page.
+Step 2: Enter valid details, but use an invalid government registration number.
+Step 3: Submit the registration form.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a doctor.
+Step 2: Navigate to the appointments section.
+Step 3: View the list of appointments.
+Step 4: Attempt to update or cancel an appointment.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a doctor.
+Step 2: Navigate to the test results section.
+Step 3: Select a patient and view their test results.</t>
+  </si>
+  <si>
+    <t>Step 1: Navigate to the diagnostic center registration page.
+Step 2: Enter valid details, including a valid reference number.
+Step 3: Submit the registration form.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a diagnostic center.
+Step 2: Navigate to the patient records section.
+Step 3: Select a patient and update their test results.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as a diagnostic center.
+Step 2: Navigate to the reports section.
+Step 3: Upload a report for a patient.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as any user role (patient, doctor, diagnostic center).
+Step 2: Navigate to the logout option.
+Step 3: Click on the logout button.</t>
+  </si>
+  <si>
+    <t>Step 1: Log in as any user role (patient, doctor, diagnostic center).
+Step 2: Remain inactive for the specified timeout period.</t>
+  </si>
+  <si>
+    <t>The system should register the patient successfully and redirect to the login page.</t>
+  </si>
+  <si>
+    <t>The system should display error messages for the missing fields and not register the patient.</t>
+  </si>
+  <si>
+    <t>The system should log in the patient successfully and redirect to the dashboard.</t>
+  </si>
+  <si>
+    <t>The system should display an error message indicating incorrect credentials.</t>
+  </si>
+  <si>
+    <t>The system should display a list of doctors matching the name.</t>
+  </si>
+  <si>
+    <t>The system should display a list of doctors matching the specialization.</t>
+  </si>
+  <si>
+    <t>The system should confirm the appointment and display the waiting time.</t>
+  </si>
+  <si>
+    <t>The system should display error messages for the invalid fields and not book the appointment.</t>
+  </si>
+  <si>
+    <t>The system should display the doctor's qualifications.</t>
+  </si>
+  <si>
+    <t>The system should register the doctor successfully and redirect to the login page.</t>
+  </si>
+  <si>
+    <t>The system should display an error message and not register the doctor.</t>
+  </si>
+  <si>
+    <t>The system should log in the doctor successfully and redirect to the dashboard.</t>
+  </si>
+  <si>
+    <t>The system should display the list of appointments and allow the doctor to update or cancel them.</t>
+  </si>
+  <si>
+    <t>The system should display the patient's test results.</t>
+  </si>
+  <si>
+    <t>The system should register the diagnostic center successfully and redirect to the login page.</t>
+  </si>
+  <si>
+    <t>The system should log in the diagnostic center successfully and redirect to the dashboard.</t>
+  </si>
+  <si>
+    <t>The system should update the patient's records successfully.</t>
+  </si>
+  <si>
+    <t>The system should upload the report successfully and associate it with the correct patient.</t>
+  </si>
+  <si>
+    <t>The system should log out the user successfully and redirect to the login page.</t>
+  </si>
+  <si>
+    <t>The system should log out the user automatically due to inactivity and redirect to the login page.</t>
   </si>
 </sst>
 </file>
@@ -75,8 +421,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -374,15 +723,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="50.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/Reqiurements Documents_test_cases.xlsx
+++ b/excel_files/Reqiurements Documents_test_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -91,278 +91,568 @@
     <t>TC_020</t>
   </si>
   <si>
-    <t>Valid Patient Registration</t>
-  </si>
-  <si>
-    <t>Invalid Patient Registration - Missing Fields</t>
-  </si>
-  <si>
-    <t>Valid Patient Login</t>
-  </si>
-  <si>
-    <t>Invalid Patient Login - Wrong Password</t>
-  </si>
-  <si>
-    <t>Search Doctor by Name</t>
-  </si>
-  <si>
-    <t>Search Doctor by Specialization</t>
-  </si>
-  <si>
-    <t>Book Appointment with Valid Details</t>
-  </si>
-  <si>
-    <t>Book Appointment with Invalid Details</t>
-  </si>
-  <si>
-    <t>View Doctor Qualifications</t>
-  </si>
-  <si>
-    <t>Doctor Registration with Valid Details</t>
-  </si>
-  <si>
-    <t>Doctor Registration with Invalid Government Number</t>
-  </si>
-  <si>
-    <t>Doctor Login with Valid Credentials</t>
-  </si>
-  <si>
-    <t>View and Manage Appointments</t>
-  </si>
-  <si>
-    <t>Access Test Results</t>
-  </si>
-  <si>
-    <t>Diagnostic Center Registration with Valid Details</t>
-  </si>
-  <si>
-    <t>Diagnostic Center Login with Valid Credentials</t>
-  </si>
-  <si>
-    <t>Update Patient Records</t>
-  </si>
-  <si>
-    <t>Upload Reports</t>
-  </si>
-  <si>
-    <t>Logout Functionality</t>
-  </si>
-  <si>
-    <t>Inactivity Timeout</t>
-  </si>
-  <si>
-    <t>Verify that a patient can successfully register with valid inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles missing required fields during patient registration.</t>
-  </si>
-  <si>
-    <t>Verify that a patient can successfully log in with valid credentials.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles incorrect password during patient login.</t>
-  </si>
-  <si>
-    <t>Verify that a patient can search for a doctor by name.</t>
-  </si>
-  <si>
-    <t>Verify that a patient can search for a doctor by specialization.</t>
-  </si>
-  <si>
-    <t>Verify that a patient can book an appointment with valid details.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles invalid details during appointment booking.</t>
-  </si>
-  <si>
-    <t>Verify that a patient can view a doctor's qualifications.</t>
-  </si>
-  <si>
-    <t>Verify that a doctor can register with valid details.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles an invalid government registration number during doctor registration.</t>
-  </si>
-  <si>
-    <t>Verify that a doctor can log in with valid credentials.</t>
-  </si>
-  <si>
-    <t>Verify that a doctor can view and manage their appointments.</t>
-  </si>
-  <si>
-    <t>Verify that a doctor can access test results of patients.</t>
-  </si>
-  <si>
-    <t>Verify that a diagnostic center can register with valid details.</t>
-  </si>
-  <si>
-    <t>Verify that a diagnostic center can log in with valid credentials.</t>
-  </si>
-  <si>
-    <t>Verify that a diagnostic center can update patient records.</t>
-  </si>
-  <si>
-    <t>Verify that a diagnostic center can upload reports.</t>
-  </si>
-  <si>
-    <t>Verify that users can log out of the application.</t>
-  </si>
-  <si>
-    <t>Verify that the system logs out users due to inactivity.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate to the registration page.
-Step 2: Enter valid details in all required fields.
-Step 3: Submit the registration form.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate to the registration page.
-Step 2: Leave one or more required fields empty.
-Step 3: Submit the registration form.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate to the login page.
-Step 2: Enter valid username and password.
-Step 3: Click on the login button.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate to the login page.
-Step 2: Enter valid username and incorrect password.
-Step 3: Click on the login button.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a patient.
-Step 2: Navigate to the doctor search page.
-Step 3: Enter a valid doctor's name.
-Step 4: Submit the search query.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a patient.
-Step 2: Navigate to the doctor search page.
-Step 3: Select a specialization from the filter options.
-Step 4: Submit the search query.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a patient.
-Step 2: Search for a doctor and select a time slot.
-Step 3: Enter valid details in the appointment form.
-Step 4: Submit the appointment form.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a patient.
-Step 2: Search for a doctor and select a time slot.
-Step 3: Enter invalid details in the appointment form (e.g., invalid phone number).
-Step 4: Submit the appointment form.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a patient.
-Step 2: Search for a doctor and view their profile.
-Step 3: Navigate to the qualifications section.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate to the doctor registration page.
-Step 2: Enter valid details, including a valid government registration number.
-Step 3: Submit the registration form.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate to the doctor registration page.
-Step 2: Enter valid details, but use an invalid government registration number.
-Step 3: Submit the registration form.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a doctor.
-Step 2: Navigate to the appointments section.
-Step 3: View the list of appointments.
-Step 4: Attempt to update or cancel an appointment.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a doctor.
-Step 2: Navigate to the test results section.
-Step 3: Select a patient and view their test results.</t>
-  </si>
-  <si>
-    <t>Step 1: Navigate to the diagnostic center registration page.
-Step 2: Enter valid details, including a valid reference number.
-Step 3: Submit the registration form.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a diagnostic center.
-Step 2: Navigate to the patient records section.
-Step 3: Select a patient and update their test results.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as a diagnostic center.
-Step 2: Navigate to the reports section.
-Step 3: Upload a report for a patient.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as any user role (patient, doctor, diagnostic center).
-Step 2: Navigate to the logout option.
-Step 3: Click on the logout button.</t>
-  </si>
-  <si>
-    <t>Step 1: Log in as any user role (patient, doctor, diagnostic center).
-Step 2: Remain inactive for the specified timeout period.</t>
-  </si>
-  <si>
-    <t>The system should register the patient successfully and redirect to the login page.</t>
-  </si>
-  <si>
-    <t>The system should display error messages for the missing fields and not register the patient.</t>
-  </si>
-  <si>
-    <t>The system should log in the patient successfully and redirect to the dashboard.</t>
-  </si>
-  <si>
-    <t>The system should display an error message indicating incorrect credentials.</t>
-  </si>
-  <si>
-    <t>The system should display a list of doctors matching the name.</t>
-  </si>
-  <si>
-    <t>The system should display a list of doctors matching the specialization.</t>
-  </si>
-  <si>
-    <t>The system should confirm the appointment and display the waiting time.</t>
-  </si>
-  <si>
-    <t>The system should display error messages for the invalid fields and not book the appointment.</t>
-  </si>
-  <si>
-    <t>The system should display the doctor's qualifications.</t>
-  </si>
-  <si>
-    <t>The system should register the doctor successfully and redirect to the login page.</t>
-  </si>
-  <si>
-    <t>The system should display an error message and not register the doctor.</t>
-  </si>
-  <si>
-    <t>The system should log in the doctor successfully and redirect to the dashboard.</t>
-  </si>
-  <si>
-    <t>The system should display the list of appointments and allow the doctor to update or cancel them.</t>
-  </si>
-  <si>
-    <t>The system should display the patient's test results.</t>
-  </si>
-  <si>
-    <t>The system should register the diagnostic center successfully and redirect to the login page.</t>
-  </si>
-  <si>
-    <t>The system should log in the diagnostic center successfully and redirect to the dashboard.</t>
-  </si>
-  <si>
-    <t>The system should update the patient's records successfully.</t>
-  </si>
-  <si>
-    <t>The system should upload the report successfully and associate it with the correct patient.</t>
-  </si>
-  <si>
-    <t>The system should log out the user successfully and redirect to the login page.</t>
-  </si>
-  <si>
-    <t>The system should log out the user automatically due to inactivity and redirect to the login page.</t>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>TC_041</t>
+  </si>
+  <si>
+    <t>View Registration Page of Patient</t>
+  </si>
+  <si>
+    <t>Invalid Registration Page of Patient</t>
+  </si>
+  <si>
+    <t>Boundary Value Test Case for Registration Page of Patient</t>
+  </si>
+  <si>
+    <t>Edge Case Test Case for Registration Page of Patient</t>
+  </si>
+  <si>
+    <t>Login to the App</t>
+  </si>
+  <si>
+    <t>Invalid Login Credentials</t>
+  </si>
+  <si>
+    <t>Boundary Value Test Case for Login</t>
+  </si>
+  <si>
+    <t>Edge Case Test Case for Login</t>
+  </si>
+  <si>
+    <t>View Doctor Information</t>
+  </si>
+  <si>
+    <t>Invalid Doctor Information</t>
+  </si>
+  <si>
+    <t>Boundary Value Test Case for Doctor Information</t>
+  </si>
+  <si>
+    <t>Edge Case Test Case for Doctor Information</t>
+  </si>
+  <si>
+    <t>Book Appointment Online with Diagnostic Center</t>
+  </si>
+  <si>
+    <t>Invalid Appointment Information</t>
+  </si>
+  <si>
+    <t>Boundary Value Test Case for Appointment Information</t>
+  </si>
+  <si>
+    <t>Edge Case Test Case for Appointment Information</t>
+  </si>
+  <si>
+    <t>Confirm Appointment Online</t>
+  </si>
+  <si>
+    <t>Invalid Confirmation</t>
+  </si>
+  <si>
+    <t>Boundary Value Test Case for Confirmation</t>
+  </si>
+  <si>
+    <t>Edge Case Test Case for Confirmation</t>
+  </si>
+  <si>
+    <t>Verify System Scalability with Valid Input</t>
+  </si>
+  <si>
+    <t>Verify System Scalability with Invalid Input</t>
+  </si>
+  <si>
+    <t>Verify System Scalability at Boundary Values</t>
+  </si>
+  <si>
+    <t>Verify Unit Test Coverage</t>
+  </si>
+  <si>
+    <t>Verify Interoperability on Android</t>
+  </si>
+  <si>
+    <t>Verify Interoperability on iOS</t>
+  </si>
+  <si>
+    <t>Verify Portability on Tablet</t>
+  </si>
+  <si>
+    <t>Verify Portability on Smartphone</t>
+  </si>
+  <si>
+    <t>Verify Code Reuse</t>
+  </si>
+  <si>
+    <t>Verify Test Case Reuse</t>
+  </si>
+  <si>
+    <t>Verify System Scalability with Large Input</t>
+  </si>
+  <si>
+    <t>Verify System Scalability with Small Input</t>
+  </si>
+  <si>
+    <t>Verify Interoperability with Data Security</t>
+  </si>
+  <si>
+    <t>Verify Portability across Operating Systems</t>
+  </si>
+  <si>
+    <t>Verify Function Reuse</t>
+  </si>
+  <si>
+    <t>Verify Interoperability with Error Handling</t>
+  </si>
+  <si>
+    <t>Verify Portability with Error Handling</t>
+  </si>
+  <si>
+    <t>Verify Reusability with Error Handling</t>
+  </si>
+  <si>
+    <t>Verify System Scalability with Concurrent Users</t>
+  </si>
+  <si>
+    <t>Verify Interoperability with Data Exchange</t>
+  </si>
+  <si>
+    <t>Verify that the system allows the user to find the sign up form.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles invalid registration page inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles registration page inputs at the boundaries.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles unusual or unexpected registration page inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system allows the user to login with valid credentials.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles invalid login credentials.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles login inputs at the boundaries.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles unusual or unexpected login inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system allows the user to search doctor's information.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles invalid doctor information inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles doctor information inputs at the boundaries.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles unusual or unexpected doctor information inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system allows the patient to search and view appointment details.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles invalid appointment information inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles appointment information inputs at the boundaries.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles unusual or unexpected appointment information inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system allows the patient to confirm the appointment.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles invalid confirmation inputs.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles confirmation inputs at the boundaries.</t>
+  </si>
+  <si>
+    <t>Verify that the system handles unusual or unexpected confirmation inputs.</t>
+  </si>
+  <si>
+    <t>Test the system's ability to scale with valid input.</t>
+  </si>
+  <si>
+    <t>Test the system's ability to handle invalid input.</t>
+  </si>
+  <si>
+    <t>Test the system's ability to handle input at boundary values.</t>
+  </si>
+  <si>
+    <t>Test the unit test coverage of the system.</t>
+  </si>
+  <si>
+    <t>Test the system's interoperability on Android.</t>
+  </si>
+  <si>
+    <t>Test the system's interoperability on iOS.</t>
+  </si>
+  <si>
+    <t>Test the system's portability on a tablet.</t>
+  </si>
+  <si>
+    <t>Test the system's portability on a smartphone.</t>
+  </si>
+  <si>
+    <t>Test the reusability of the system's code.</t>
+  </si>
+  <si>
+    <t>Test the reusability of the system's test cases.</t>
+  </si>
+  <si>
+    <t>Test the system's ability to scale with large input.</t>
+  </si>
+  <si>
+    <t>Test the system's ability to scale with small input.</t>
+  </si>
+  <si>
+    <t>Test the system's interoperability with data security.</t>
+  </si>
+  <si>
+    <t>Test the system's portability across operating systems.</t>
+  </si>
+  <si>
+    <t>Test the reusability of the system's functions.</t>
+  </si>
+  <si>
+    <t>Test the system's interoperability with error handling.</t>
+  </si>
+  <si>
+    <t>Test the system's portability with error handling.</t>
+  </si>
+  <si>
+    <t>Test the system's reusability with error handling.</t>
+  </si>
+  <si>
+    <t>Test the system's ability to scale with concurrent users.</t>
+  </si>
+  <si>
+    <t>Test the system's interoperability with data exchange.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Click on the "Register" button.
+Step 3: Verify that the registration page is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter invalid registration page inputs.
+Step 3: Verify that an error message is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter registration page inputs at the boundaries (e.g., minimum and maximum values).
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter unusual or unexpected registration page inputs.
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter valid login credentials.
+Step 3: Verify that the user is logged in successfully.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter invalid login credentials.
+Step 3: Verify that an error message is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter login inputs at the boundaries (e.g., minimum and maximum values).
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter unusual or unexpected login inputs.
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Search for a doctor's information.
+Step 3: Verify that the doctor's information is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter invalid doctor information inputs.
+Step 3: Verify that an error message is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter doctor information inputs at the boundaries (e.g., minimum and maximum values).
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter unusual or unexpected doctor information inputs.
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Search for an appointment.
+Step 3: Verify that the appointment details are displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter invalid appointment information inputs.
+Step 3: Verify that an error message is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter appointment information inputs at the boundaries (e.g., minimum and maximum values).
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter unusual or unexpected appointment information inputs.
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Confirm the appointment.
+Step 3: Verify that the appointment is confirmed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter invalid confirmation inputs.
+Step 3: Verify that an error message is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter confirmation inputs at the boundaries (e.g., minimum and maximum values).
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Log in to the application as a patient.
+Step 2: Enter unusual or unexpected confirmation inputs.
+Step 3: Verify that the system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Provide valid input to the system.
+Step 2: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Provide invalid input to the system.
+Step 2: Verify that the system handles the invalid input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Provide input at the minimum and maximum allowed values.
+Step 2: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Run the unit tests.
+Step 2: Verify that the unit tests cover 100% of the code.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Run the system on an Android device.
+Step 2: Verify that the system functions correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Run the system on an iOS device.
+Step 2: Verify that the system functions correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Run the system on a tablet.
+Step 2: Verify that the system functions correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Run the system on a smartphone.
+Step 2: Verify that the system functions correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Identify reusable code.
+Step 2: Verify that the reusable code functions correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Identify reusable test cases.
+Step 2: Verify that the reusable test cases function correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Provide large input to the system.
+Step 2: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Provide small input to the system.
+Step 2: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Verify that patient data is hidden under their account.
+Step 2: Verify that patient data is not available to unauthorized users.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Run the system on different operating systems.
+Step 2: Verify that the system functions correctly on each operating system.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Identify reusable functions.
+Step 2: Verify that the reusable functions function correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate an error scenario.
+Step 2: Verify that the system handles the error correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate an error scenario.
+Step 2: Verify that the system handles the error correctly on different operating systems.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate an error scenario.
+Step 2: Verify that the system handles the error correctly and reuses the error handling mechanism.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate concurrent users.
+Step 2: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Verify that the system exchanges data correctly.
+Step 2: Verify that the system presents the exchanged data correctly.</t>
+  </si>
+  <si>
+    <t>The registration page is displayed.</t>
+  </si>
+  <si>
+    <t>An error message is displayed.</t>
+  </si>
+  <si>
+    <t>The system handles the inputs correctly.</t>
+  </si>
+  <si>
+    <t>The user is logged in successfully.</t>
+  </si>
+  <si>
+    <t>The doctor's information is displayed.</t>
+  </si>
+  <si>
+    <t>The appointment details are displayed.</t>
+  </si>
+  <si>
+    <t>The appointment is confirmed.</t>
+  </si>
+  <si>
+    <t>The system should process the input correctly and scale accordingly.</t>
+  </si>
+  <si>
+    <t>The system should handle the invalid input correctly and not crash.</t>
+  </si>
+  <si>
+    <t>The system should process the input correctly at the boundary values.</t>
+  </si>
+  <si>
+    <t>The unit tests should cover 100% of the code.</t>
+  </si>
+  <si>
+    <t>The system should function correctly on Android.</t>
+  </si>
+  <si>
+    <t>The system should function correctly on iOS.</t>
+  </si>
+  <si>
+    <t>The system should function correctly on a tablet.</t>
+  </si>
+  <si>
+    <t>The system should function correctly on a smartphone.</t>
+  </si>
+  <si>
+    <t>The reusable code should function correctly.</t>
+  </si>
+  <si>
+    <t>The reusable test cases should function correctly.</t>
+  </si>
+  <si>
+    <t>The system should process the input correctly with large input.</t>
+  </si>
+  <si>
+    <t>The system should process the input correctly with small input.</t>
+  </si>
+  <si>
+    <t>The system should maintain data security and hide patient data under their account.</t>
+  </si>
+  <si>
+    <t>The system should function correctly on each operating system.</t>
+  </si>
+  <si>
+    <t>The reusable functions should function correctly.</t>
+  </si>
+  <si>
+    <t>The system should handle the error correctly.</t>
+  </si>
+  <si>
+    <t>The system should handle the error correctly on each operating system.</t>
+  </si>
+  <si>
+    <t>The system should handle the error correctly and reuse the error handling mechanism.</t>
+  </si>
+  <si>
+    <t>The system should process the input correctly with concurrent users.</t>
+  </si>
+  <si>
+    <t>The system should exchange data correctly and present the exchanged data correctly.</t>
   </si>
 </sst>
 </file>
@@ -723,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,34 +1043,22 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -788,16 +1066,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -805,16 +1083,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -822,16 +1100,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -839,16 +1117,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -856,16 +1134,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -873,16 +1151,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -890,16 +1168,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -907,16 +1185,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -924,16 +1202,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -941,16 +1219,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -958,16 +1236,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -975,16 +1253,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -992,16 +1270,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1009,16 +1287,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1026,16 +1304,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1043,16 +1321,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1060,16 +1338,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1077,16 +1355,373 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/Reqiurements Documents_test_cases.xlsx
+++ b/excel_files/Reqiurements Documents_test_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="190">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -151,508 +151,534 @@
     <t>TC_040</t>
   </si>
   <si>
-    <t>TC_041</t>
-  </si>
-  <si>
-    <t>View Registration Page of Patient</t>
-  </si>
-  <si>
-    <t>Invalid Registration Page of Patient</t>
-  </si>
-  <si>
-    <t>Boundary Value Test Case for Registration Page of Patient</t>
-  </si>
-  <si>
-    <t>Edge Case Test Case for Registration Page of Patient</t>
-  </si>
-  <si>
-    <t>Login to the App</t>
-  </si>
-  <si>
-    <t>Invalid Login Credentials</t>
-  </si>
-  <si>
-    <t>Boundary Value Test Case for Login</t>
-  </si>
-  <si>
-    <t>Edge Case Test Case for Login</t>
-  </si>
-  <si>
-    <t>View Doctor Information</t>
-  </si>
-  <si>
-    <t>Invalid Doctor Information</t>
-  </si>
-  <si>
-    <t>Boundary Value Test Case for Doctor Information</t>
-  </si>
-  <si>
-    <t>Edge Case Test Case for Doctor Information</t>
-  </si>
-  <si>
-    <t>Book Appointment Online with Diagnostic Center</t>
-  </si>
-  <si>
-    <t>Invalid Appointment Information</t>
-  </si>
-  <si>
-    <t>Boundary Value Test Case for Appointment Information</t>
-  </si>
-  <si>
-    <t>Edge Case Test Case for Appointment Information</t>
-  </si>
-  <si>
-    <t>Confirm Appointment Online</t>
-  </si>
-  <si>
-    <t>Invalid Confirmation</t>
-  </si>
-  <si>
-    <t>Boundary Value Test Case for Confirmation</t>
-  </si>
-  <si>
-    <t>Edge Case Test Case for Confirmation</t>
-  </si>
-  <si>
-    <t>Verify System Scalability with Valid Input</t>
-  </si>
-  <si>
-    <t>Verify System Scalability with Invalid Input</t>
-  </si>
-  <si>
-    <t>Verify System Scalability at Boundary Values</t>
-  </si>
-  <si>
-    <t>Verify Unit Test Coverage</t>
-  </si>
-  <si>
-    <t>Verify Interoperability on Android</t>
-  </si>
-  <si>
-    <t>Verify Interoperability on iOS</t>
-  </si>
-  <si>
-    <t>Verify Portability on Tablet</t>
-  </si>
-  <si>
-    <t>Verify Portability on Smartphone</t>
-  </si>
-  <si>
-    <t>Verify Code Reuse</t>
-  </si>
-  <si>
-    <t>Verify Test Case Reuse</t>
-  </si>
-  <si>
-    <t>Verify System Scalability with Large Input</t>
-  </si>
-  <si>
-    <t>Verify System Scalability with Small Input</t>
-  </si>
-  <si>
-    <t>Verify Interoperability with Data Security</t>
-  </si>
-  <si>
-    <t>Verify Portability across Operating Systems</t>
-  </si>
-  <si>
-    <t>Verify Function Reuse</t>
-  </si>
-  <si>
-    <t>Verify Interoperability with Error Handling</t>
-  </si>
-  <si>
-    <t>Verify Portability with Error Handling</t>
-  </si>
-  <si>
-    <t>Verify Reusability with Error Handling</t>
-  </si>
-  <si>
-    <t>Verify System Scalability with Concurrent Users</t>
-  </si>
-  <si>
-    <t>Verify Interoperability with Data Exchange</t>
-  </si>
-  <si>
-    <t>Verify that the system allows the user to find the sign up form.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles invalid registration page inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles registration page inputs at the boundaries.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles unusual or unexpected registration page inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system allows the user to login with valid credentials.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles invalid login credentials.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles login inputs at the boundaries.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles unusual or unexpected login inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system allows the user to search doctor's information.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles invalid doctor information inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles doctor information inputs at the boundaries.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles unusual or unexpected doctor information inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system allows the patient to search and view appointment details.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles invalid appointment information inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles appointment information inputs at the boundaries.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles unusual or unexpected appointment information inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system allows the patient to confirm the appointment.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles invalid confirmation inputs.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles confirmation inputs at the boundaries.</t>
-  </si>
-  <si>
-    <t>Verify that the system handles unusual or unexpected confirmation inputs.</t>
-  </si>
-  <si>
-    <t>Test the system's ability to scale with valid input.</t>
-  </si>
-  <si>
-    <t>Test the system's ability to handle invalid input.</t>
-  </si>
-  <si>
-    <t>Test the system's ability to handle input at boundary values.</t>
-  </si>
-  <si>
-    <t>Test the unit test coverage of the system.</t>
-  </si>
-  <si>
-    <t>Test the system's interoperability on Android.</t>
-  </si>
-  <si>
-    <t>Test the system's interoperability on iOS.</t>
-  </si>
-  <si>
-    <t>Test the system's portability on a tablet.</t>
-  </si>
-  <si>
-    <t>Test the system's portability on a smartphone.</t>
-  </si>
-  <si>
-    <t>Test the reusability of the system's code.</t>
-  </si>
-  <si>
-    <t>Test the reusability of the system's test cases.</t>
-  </si>
-  <si>
-    <t>Test the system's ability to scale with large input.</t>
-  </si>
-  <si>
-    <t>Test the system's ability to scale with small input.</t>
-  </si>
-  <si>
-    <t>Test the system's interoperability with data security.</t>
-  </si>
-  <si>
-    <t>Test the system's portability across operating systems.</t>
-  </si>
-  <si>
-    <t>Test the reusability of the system's functions.</t>
-  </si>
-  <si>
-    <t>Test the system's interoperability with error handling.</t>
-  </si>
-  <si>
-    <t>Test the system's portability with error handling.</t>
-  </si>
-  <si>
-    <t>Test the system's reusability with error handling.</t>
-  </si>
-  <si>
-    <t>Test the system's ability to scale with concurrent users.</t>
-  </si>
-  <si>
-    <t>Test the system's interoperability with data exchange.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
+    <t xml:space="preserve"> View Registration Page of Patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid Input for Registration Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boundary Value Test for Registration Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edge Case Test for Registration Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Login to the App</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid Input for Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boundary Value Test for Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edge Case Test for Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> View Doctor Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid Input for Doctor Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boundary Value Test for Doctor Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edge Case Test for Doctor Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Book Appointment Online with Diagnostic Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid Input for Booking Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boundary Value Test for Booking Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edge Case Test for Booking Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confirm Appointment Online</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid Input for Confirming Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boundary Value Test for Confirming Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edge Case Test for Confirming Appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system scalability by expanding processing capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify 100% branch coverage in unit tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify Android app functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify iOS app functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system compatibility on tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system compatibility on smartphones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify code reusability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify test case reusability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system scalability under load</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system functionality through functional testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify Android app error handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify iOS app error handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system compatibility across operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify code modularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system scalability under large data volumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify data security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system compatibility on cloud platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify test data generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify system scalability under user load</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system displays the registration page for patients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles invalid input for the registration page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles boundary values for the registration page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles edge cases for the registration page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system allows users to login with valid credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles invalid input for the login page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles boundary values for the login page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles edge cases for the login page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system displays doctor information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles invalid input for the doctor information page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles boundary values for the doctor information page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles edge cases for the doctor information page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system allows users to book an appointment online with the diagnostic center.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles invalid input for booking an appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles boundary values for booking an appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles edge cases for booking an appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system allows users to confirm an appointment online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles invalid input for confirming an appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles boundary values for confirming an appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the system handles edge cases for confirming an appointment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to handle increased workload and data volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test that all branches in the code are executed during unit testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the Android app's ability to exchange data and present it to the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the iOS app's ability to exchange data and present it to the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to run on tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to run on smartphones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to reuse code in other applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to reuse test cases in other applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to handle increased workload and data volume under load</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to perform its intended functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the Android app's ability to handle errors and exceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the iOS app's ability to handle errors and exceptions gracefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to run on different operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to break down code into reusable modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to handle large data volumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to maintain data security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to run on cloud platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to generate test data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test the system's ability to handle increased user load</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
 Step 2: Click on the "Register" button.
 Step 3: Verify that the registration page is displayed.</t>
   </si>
   <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter invalid registration page inputs.
-Step 3: Verify that an error message is displayed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter registration page inputs at the boundaries (e.g., minimum and maximum values).
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter unusual or unexpected registration page inputs.
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter valid login credentials.
-Step 3: Verify that the user is logged in successfully.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter invalid login credentials.
-Step 3: Verify that an error message is displayed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter login inputs at the boundaries (e.g., minimum and maximum values).
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter unusual or unexpected login inputs.
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Search for a doctor's information.
-Step 3: Verify that the doctor's information is displayed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter invalid doctor information inputs.
-Step 3: Verify that an error message is displayed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter doctor information inputs at the boundaries (e.g., minimum and maximum values).
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter unusual or unexpected doctor information inputs.
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Search for an appointment.
-Step 3: Verify that the appointment details are displayed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter invalid appointment information inputs.
-Step 3: Verify that an error message is displayed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter appointment information inputs at the boundaries (e.g., minimum and maximum values).
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter unusual or unexpected appointment information inputs.
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Confirm the appointment.
-Step 3: Verify that the appointment is confirmed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter invalid confirmation inputs.
-Step 3: Verify that an error message is displayed.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter confirmation inputs at the boundaries (e.g., minimum and maximum values).
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Log in to the application as a patient.
-Step 2: Enter unusual or unexpected confirmation inputs.
-Step 3: Verify that the system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Provide valid input to the system.
-Step 2: Verify that the system processes the input correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Provide invalid input to the system.
-Step 2: Verify that the system handles the invalid input correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Provide input at the minimum and maximum allowed values.
-Step 2: Verify that the system processes the input correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Run the unit tests.
-Step 2: Verify that the unit tests cover 100% of the code.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Run the system on an Android device.
-Step 2: Verify that the system functions correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Run the system on an iOS device.
-Step 2: Verify that the system functions correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Run the system on a tablet.
-Step 2: Verify that the system functions correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Run the system on a smartphone.
-Step 2: Verify that the system functions correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Identify reusable code.
-Step 2: Verify that the reusable code functions correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Identify reusable test cases.
-Step 2: Verify that the reusable test cases function correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Provide large input to the system.
-Step 2: Verify that the system processes the input correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Provide small input to the system.
-Step 2: Verify that the system processes the input correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Verify that patient data is hidden under their account.
-Step 2: Verify that patient data is not available to unauthorized users.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Run the system on different operating systems.
-Step 2: Verify that the system functions correctly on each operating system.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Identify reusable functions.
-Step 2: Verify that the reusable functions function correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Simulate an error scenario.
-Step 2: Verify that the system handles the error correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Simulate an error scenario.
-Step 2: Verify that the system handles the error correctly on different operating systems.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Simulate an error scenario.
-Step 2: Verify that the system handles the error correctly and reuses the error handling mechanism.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Simulate concurrent users.
-Step 2: Verify that the system processes the input correctly.</t>
-  </si>
-  <si>
-    <t>Step 1: Step 1: Verify that the system exchanges data correctly.
-Step 2: Verify that the system presents the exchanged data correctly.</t>
-  </si>
-  <si>
-    <t>The registration page is displayed.</t>
-  </si>
-  <si>
-    <t>An error message is displayed.</t>
-  </si>
-  <si>
-    <t>The system handles the inputs correctly.</t>
-  </si>
-  <si>
-    <t>The user is logged in successfully.</t>
-  </si>
-  <si>
-    <t>The doctor's information is displayed.</t>
-  </si>
-  <si>
-    <t>The appointment details are displayed.</t>
-  </si>
-  <si>
-    <t>The appointment is confirmed.</t>
-  </si>
-  <si>
-    <t>The system should process the input correctly and scale accordingly.</t>
-  </si>
-  <si>
-    <t>The system should handle the invalid input correctly and not crash.</t>
-  </si>
-  <si>
-    <t>The system should process the input correctly at the boundary values.</t>
-  </si>
-  <si>
-    <t>The unit tests should cover 100% of the code.</t>
-  </si>
-  <si>
-    <t>The system should function correctly on Android.</t>
-  </si>
-  <si>
-    <t>The system should function correctly on iOS.</t>
-  </si>
-  <si>
-    <t>The system should function correctly on a tablet.</t>
-  </si>
-  <si>
-    <t>The system should function correctly on a smartphone.</t>
-  </si>
-  <si>
-    <t>The reusable code should function correctly.</t>
-  </si>
-  <si>
-    <t>The reusable test cases should function correctly.</t>
-  </si>
-  <si>
-    <t>The system should process the input correctly with large input.</t>
-  </si>
-  <si>
-    <t>The system should process the input correctly with small input.</t>
-  </si>
-  <si>
-    <t>The system should maintain data security and hide patient data under their account.</t>
-  </si>
-  <si>
-    <t>The system should function correctly on each operating system.</t>
-  </si>
-  <si>
-    <t>The reusable functions should function correctly.</t>
-  </si>
-  <si>
-    <t>The system should handle the error correctly.</t>
-  </si>
-  <si>
-    <t>The system should handle the error correctly on each operating system.</t>
-  </si>
-  <si>
-    <t>The system should handle the error correctly and reuse the error handling mechanism.</t>
-  </si>
-  <si>
-    <t>The system should process the input correctly with concurrent users.</t>
-  </si>
-  <si>
-    <t>The system should exchange data correctly and present the exchanged data correctly.</t>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Register" button.
+Step 3: Enter invalid input in the required fields.
+Step 4: Verify that the system displays an error message.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Register" button.
+Step 3: Enter minimum/maximum values for the required fields.
+Step 4: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Register" button.
+Step 3: Enter unusual or unexpected input values.
+Step 4: Verify that the system handles the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Login" button.
+Step 3: Enter valid username and password.
+Step 4: Verify that the system logs in successfully.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Login" button.
+Step 3: Enter invalid username and/or password.
+Step 4: Verify that the system displays an error message.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Login" button.
+Step 3: Enter minimum/maximum values for the username and password fields.
+Step 4: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Login" button.
+Step 3: Enter unusual or unexpected input values.
+Step 4: Verify that the system handles the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "View Doctor Information" button.
+Step 3: Verify that the doctor information is displayed.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "View Doctor Information" button.
+Step 3: Enter invalid input in the required fields.
+Step 4: Verify that the system displays an error message.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "View Doctor Information" button.
+Step 3: Enter minimum/maximum values for the required fields.
+Step 4: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "View Doctor Information" button.
+Step 3: Enter unusual or unexpected input values.
+Step 4: Verify that the system handles the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Book Appointment" button.
+Step 3: Select the diagnostic center and doctor.
+Step 4: Verify that the system displays the available time slots.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Book Appointment" button.
+Step 3: Enter invalid input in the required fields.
+Step 4: Verify that the system displays an error message.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Book Appointment" button.
+Step 3: Enter minimum/maximum values for the required fields.
+Step 4: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Book Appointment" button.
+Step 3: Enter unusual or unexpected input values.
+Step 4: Verify that the system handles the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Confirm Appointment" button.
+Step 3: Verify that the system displays the appointment details.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Confirm Appointment" button.
+Step 3: Enter invalid input in the required fields.
+Step 4: Verify that the system displays an error message.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Confirm Appointment" button.
+Step 3: Enter minimum/maximum values for the required fields.
+Step 4: Verify that the system processes the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Launch the application.
+Step 2: Click on the "Confirm Appointment" button.
+Step 3: Enter unusual or unexpected input values.
+Step 4: Verify that the system handles the input correctly.</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate a large number of users accessing the system simultaneously
+Step 2: Monitor system performance and response time
+Step 3: Verify that the system can handle the increased workload without significant degradation</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Run unit tests on the system
+Step 2: Verify that all branches in the code are executed
+Step 3: Check that no branches are missed</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Install and launch the Android app
+Step 2: Test data exchange and presentation
+Step 3: Verify that the app functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Install and launch the iOS app
+Step 2: Test data exchange and presentation
+Step 3: Verify that the app functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Install the system on a tablet
+Step 2: Test system functionality
+Step 3: Verify that the system functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Install the system on a smartphone
+Step 2: Test system functionality
+Step 3: Verify that the system functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Identify reusable code modules
+Step 2: Test the modules in a new application
+Step 3: Verify that the modules function as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Identify reusable test cases
+Step 2: Test the test cases in a new application
+Step 3: Verify that the test cases function as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate a large number of users accessing the system simultaneously under load
+Step 2: Monitor system performance and response time
+Step 3: Verify that the system can handle the increased workload without significant degradation</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Test system functionality through a series of scenarios
+Step 2: Verify that the system functions as intended
+Step 3: Check for any errors or issues</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Intentionally introduce errors in the Android app
+Step 2: Test error handling and exception handling
+Step 3: Verify that the app functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Intentionally introduce errors in the iOS app
+Step 2: Test error handling and exception handling
+Step 3: Verify that the app functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Install the system on different operating systems
+Step 2: Test system functionality
+Step 3: Verify that the system functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Identify code modules
+Step 2: Test the modules in isolation
+Step 3: Verify that the modules function as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate large data volumes
+Step 2: Test system performance and response time
+Step 3: Verify that the system can handle the large data volumes without significant degradation</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Test data security features
+Step 2: Verify that data is secure
+Step 3: Check for any vulnerabilities</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Install the system on cloud platforms
+Step 2: Test system functionality
+Step 3: Verify that the system functions as intended</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Test data generation features
+Step 2: Verify that test data is generated correctly
+Step 3: Check for any errors or issues</t>
+  </si>
+  <si>
+    <t>Step 1: Step 1: Simulate increased user load
+Step 2: Test system performance and response time
+Step 3: Verify that the system can handle the increased user load without significant degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The registration page is displayed with the required fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system displays an error message indicating invalid input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system processes the input correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system handles the input correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system logs in successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The doctor information is displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system displays the available time slots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system displays the appointment details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should be able to handle the increased workload without significant degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100% branch coverage in unit tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Android app should function as intended</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The iOS app should function as intended</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should function as intended on tablets</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should function as intended on smartphones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The reusable code modules should function as intended</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The reusable test cases should function as intended</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should be able to handle the increased workload without significant degradation under load</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should function as intended</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Android app should handle errors and exceptions gracefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The iOS app should handle errors and exceptions gracefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should function as intended on different operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The code modules should function as intended</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should be able to handle large data volumes without significant degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should maintain data security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should function as intended on cloud platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should generate test data correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system should be able to handle increased user load without significant degradation</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1043,6 +1069,18 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -1055,10 +1093,10 @@
         <v>86</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1072,10 +1110,10 @@
         <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1089,10 +1127,10 @@
         <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1106,10 +1144,10 @@
         <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1123,10 +1161,10 @@
         <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1140,10 +1178,10 @@
         <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1157,10 +1195,10 @@
         <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1174,7 +1212,7 @@
         <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
         <v>168</v>
@@ -1191,10 +1229,10 @@
         <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1208,10 +1246,10 @@
         <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1225,10 +1263,10 @@
         <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1242,10 +1280,10 @@
         <v>97</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1259,10 +1297,10 @@
         <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1276,10 +1314,10 @@
         <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1293,10 +1331,10 @@
         <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1310,10 +1348,10 @@
         <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1327,10 +1365,10 @@
         <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1344,10 +1382,10 @@
         <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1361,10 +1399,10 @@
         <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1378,10 +1416,10 @@
         <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1395,10 +1433,10 @@
         <v>106</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1412,10 +1450,10 @@
         <v>107</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1429,10 +1467,10 @@
         <v>108</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1446,10 +1484,10 @@
         <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1463,10 +1501,10 @@
         <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1480,10 +1518,10 @@
         <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1497,10 +1535,10 @@
         <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1514,10 +1552,10 @@
         <v>113</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1531,10 +1569,10 @@
         <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1548,10 +1586,10 @@
         <v>115</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1565,10 +1603,10 @@
         <v>116</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1582,10 +1620,10 @@
         <v>117</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1599,10 +1637,10 @@
         <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1616,10 +1654,10 @@
         <v>119</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1630,13 +1668,13 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1647,13 +1685,13 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1664,13 +1702,13 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1681,13 +1719,13 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1698,30 +1736,13 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
